--- a/ComparedResults/LAVTA_Comparison.xlsx
+++ b/ComparedResults/LAVTA_Comparison.xlsx
@@ -11,6 +11,7 @@
     <sheet name="OperatorChanges" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="TripsComparison" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="HoursComparison" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LeaseComparison" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -687,12 +688,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>VILCHEZ, CHARLENNE</t>
+          <t>ROBERTSON, SARAH</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>NORTHCAL TRANSPORTATION LLC</t>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -704,12 +705,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>SILVA PAUL</t>
+          <t>VILCHEZ, CHARLENNE</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+          <t>NORTHCAL TRANSPORTATION LLC</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -721,7 +722,7 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>ROBERTSON, SARAH</t>
+          <t>SILVA PAUL</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -1120,4 +1121,147 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="38" customWidth="1" min="1" max="1"/>
+    <col width="10" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>PARTNER</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>PREVIOUS</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>LATEST</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>CHANGE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>BUFFINGTON TRANSPORTATION LLC</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>JORGE TRANSPORTATION</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>NEMIA CARE LLC</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>1180</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>PEOPLE FIRST TRANSIT LLC</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>590</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>TRI VALLEY TRANSPORTATION INC.</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>416.72</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/ComparedResults/LAVTA_Comparison.xlsx
+++ b/ComparedResults/LAVTA_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ComparePayroll\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FFF155-0CA0-44D1-B790-D50F3BC464CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6C404-1666-46D7-B236-C64FF97135B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="3150" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,15 @@
     <sheet name="TripsComparison" sheetId="3" r:id="rId3"/>
     <sheet name="HoursComparison" sheetId="4" r:id="rId4"/>
     <sheet name="LeaseComparison" sheetId="5" r:id="rId5"/>
+    <sheet name="DatesComparison" sheetId="6" r:id="rId6"/>
+    <sheet name="MissingDates" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
   <si>
     <t>Metric</t>
   </si>
@@ -44,15 +46,18 @@
     <t>TRIPS</t>
   </si>
   <si>
+    <t>Increased</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
+    <t>OPERATORS</t>
+  </si>
+  <si>
     <t>Decreased</t>
   </si>
   <si>
-    <t>HOURS</t>
-  </si>
-  <si>
-    <t>OPERATORS</t>
-  </si>
-  <si>
     <t>DAYS</t>
   </si>
   <si>
@@ -68,7 +73,7 @@
     <t>Partner</t>
   </si>
   <si>
-    <t>SILVA PAUL</t>
+    <t>ROGERS, JAMES</t>
   </si>
   <si>
     <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
@@ -77,94 +82,97 @@
     <t>Added</t>
   </si>
   <si>
-    <t>FOWLER, ANTOINE</t>
-  </si>
-  <si>
-    <t>FOWLER SENIOR TRANSIT LLC</t>
+    <t>SULEIMAN, AHMED</t>
+  </si>
+  <si>
+    <t>NEMIA CARE LLC</t>
+  </si>
+  <si>
+    <t>MUNOZ, ANA</t>
+  </si>
+  <si>
+    <t>PEOPLE FIRST TRANSIT LLC</t>
+  </si>
+  <si>
+    <t>LARA, DOUGLAS</t>
+  </si>
+  <si>
+    <t>EVANS, JOHN</t>
+  </si>
+  <si>
+    <t>HUGO, TAMA</t>
+  </si>
+  <si>
+    <t>HUGO FAMILY TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>Removed</t>
   </si>
   <si>
     <t>SILVA, PAUL</t>
   </si>
   <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>UMANA, DOMINGO</t>
-  </si>
-  <si>
-    <t>BUTLER, JACQUELINE</t>
-  </si>
-  <si>
-    <t>QUICK RIDES CA</t>
-  </si>
-  <si>
-    <t>BROWN JAMES</t>
-  </si>
-  <si>
-    <t>TRULY TRANSPORT LLC</t>
-  </si>
-  <si>
-    <t>BUFFINGTON, BLAKE</t>
+    <t>VILCHEZ, CHARLENNE</t>
+  </si>
+  <si>
+    <t>NORTHCAL TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>MOLLIQUE, ROMESHA</t>
+  </si>
+  <si>
+    <t>MONAI&amp;SON'S LLC</t>
+  </si>
+  <si>
+    <t>GETU BOGALE</t>
+  </si>
+  <si>
+    <t>GET CARE TRANSIT LLC</t>
+  </si>
+  <si>
+    <t>ALLGOOD, SCOTT</t>
+  </si>
+  <si>
+    <t>PARTNER</t>
+  </si>
+  <si>
+    <t>PREVIOUS</t>
+  </si>
+  <si>
+    <t>LATEST</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>BUFFINGTON TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>JORGE TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
   </si>
   <si>
     <t>TRI VALLEY TRANSPORTATION INC.</t>
   </si>
   <si>
-    <t>SAIFON WISETMEE</t>
-  </si>
-  <si>
-    <t>BROWN, JAMES</t>
-  </si>
-  <si>
-    <t>DEL CASTILLO, ABEL</t>
-  </si>
-  <si>
-    <t>SALGUERO, JORGE</t>
-  </si>
-  <si>
-    <t>KEITH , CLYDE</t>
-  </si>
-  <si>
-    <t>COLEMAN, SHAWN</t>
-  </si>
-  <si>
-    <t>PARTNER</t>
-  </si>
-  <si>
-    <t>PREVIOUS</t>
-  </si>
-  <si>
-    <t>LATEST</t>
-  </si>
-  <si>
-    <t>CHANGE</t>
-  </si>
-  <si>
-    <t>BUFFINGTON TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>GET CARE TRANSIT LLC</t>
-  </si>
-  <si>
-    <t>HUGO FAMILY TRANSPORTATION</t>
-  </si>
-  <si>
-    <t>JORGE TRANSPORTATION</t>
-  </si>
-  <si>
-    <t>NEMIA CARE LLC</t>
-  </si>
-  <si>
-    <t>PEOPLE FIRST TRANSIT LLC</t>
-  </si>
-  <si>
-    <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Missing Dates of Work</t>
+  </si>
+  <si>
+    <t>There are no missing dates of work.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,12 +189,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -205,14 +213,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -243,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,8 +569,9 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -587,13 +597,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>1382</v>
+        <v>973</v>
       </c>
       <c r="C2" s="2">
-        <v>1312</v>
+        <v>1018</v>
       </c>
       <c r="D2" s="2">
-        <v>-70</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -604,13 +614,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>895.29600000000005</v>
+        <v>775.70099999999991</v>
       </c>
       <c r="C3" s="2">
-        <v>874.70600000000002</v>
+        <v>834.70500000000004</v>
       </c>
       <c r="D3" s="2">
-        <v>-20.590000000000028</v>
+        <v>59.004000000000133</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>6</v>
@@ -621,21 +631,21 @@
         <v>8</v>
       </c>
       <c r="B4" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2">
-        <v>-7</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
+        <v>-1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="2">
         <v>14</v>
@@ -647,21 +657,21 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>29969.371858063911</v>
+        <v>23325.45278</v>
       </c>
       <c r="C6" s="2">
-        <v>28227.515135833339</v>
+        <v>26979.472750000001</v>
       </c>
       <c r="D6" s="2">
-        <v>-1741.856722230579</v>
+        <v>3654.0199699999939</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>6</v>
@@ -674,7 +684,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -687,10 +697,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
@@ -698,57 +708,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
         <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -758,19 +768,19 @@
       <c r="B7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
+      <c r="C7" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -778,65 +788,43 @@
         <v>28</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
+        <v>29</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>33</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -846,7 +834,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -859,72 +847,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>100</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2">
-        <v>196</v>
+        <v>122</v>
       </c>
       <c r="D2" s="4">
-        <v>96</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="C3" s="2">
-        <v>360</v>
-      </c>
-      <c r="D3" s="3">
-        <v>-48</v>
+        <v>293</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>13</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>17</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,111 +920,97 @@
         <v>40</v>
       </c>
       <c r="B6" s="2">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="C6" s="2">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="D6" s="4">
-        <v>19</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>21</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>190</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2">
-        <v>229</v>
-      </c>
-      <c r="D8" s="4">
-        <v>39</v>
+        <v>185</v>
+      </c>
+      <c r="D8" s="3">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>183</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>151</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-32</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-13</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="D10" s="3">
-        <v>-7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
         <v>22</v>
       </c>
       <c r="C11" s="2">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D11" s="3">
-        <v>-9</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
-        <v>342</v>
+        <v>134</v>
       </c>
       <c r="C12" s="2">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="D12" s="3">
-        <v>-164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2">
-        <v>15</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-15</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1046,7 +1020,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1054,78 +1028,77 @@
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
-    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="3" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>55.08</v>
+        <v>84.85</v>
       </c>
       <c r="C2" s="2">
-        <v>95.1</v>
+        <v>83.36</v>
       </c>
       <c r="D2" s="4">
-        <v>40.020000000000003</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
-        <v>328.51</v>
+        <v>309.64</v>
       </c>
       <c r="C3" s="2">
-        <v>330.82</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2.31</v>
+        <v>323.88</v>
+      </c>
+      <c r="D3" s="3">
+        <v>14.24</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="C4" s="2">
-        <v>10.43</v>
+        <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>10.43</v>
+        <v>-2.4700000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B5" s="2">
-        <v>10.02</v>
+        <v>8.5</v>
       </c>
       <c r="C5" s="2">
-        <v>17.23</v>
+        <v>0</v>
       </c>
       <c r="D5" s="4">
-        <v>7.21</v>
+        <v>-8.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1133,111 +1106,97 @@
         <v>40</v>
       </c>
       <c r="B6" s="2">
-        <v>8.35</v>
+        <v>104.57</v>
       </c>
       <c r="C6" s="2">
-        <v>18.510000000000002</v>
+        <v>99.38</v>
       </c>
       <c r="D6" s="4">
-        <v>10.16</v>
+        <v>-5.19</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2">
-        <v>69.099999999999994</v>
+        <v>4.8</v>
       </c>
       <c r="C7" s="2">
-        <v>95.68</v>
+        <v>0</v>
       </c>
       <c r="D7" s="4">
-        <v>26.58</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>126.54</v>
+        <v>90.79</v>
       </c>
       <c r="C8" s="2">
-        <v>152.55000000000001</v>
-      </c>
-      <c r="D8" s="4">
-        <v>26.01</v>
+        <v>159.63</v>
+      </c>
+      <c r="D8" s="3">
+        <v>68.84</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2">
-        <v>73.95</v>
+        <v>10.08</v>
       </c>
       <c r="C9" s="2">
-        <v>63.85</v>
-      </c>
-      <c r="D9" s="3">
-        <v>-10.1</v>
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-10.08</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="2">
-        <v>8.85</v>
+        <v>67.34</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>76.37</v>
       </c>
       <c r="D10" s="3">
-        <v>-8.85</v>
+        <v>9.0299999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" s="2">
-        <v>21.07</v>
+        <v>23.62</v>
       </c>
       <c r="C11" s="2">
-        <v>12.43</v>
+        <v>23.85</v>
       </c>
       <c r="D11" s="3">
-        <v>-8.64</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B12" s="2">
-        <v>181.61</v>
+        <v>69.05</v>
       </c>
       <c r="C12" s="2">
-        <v>78.09</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-103.52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12.22</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>-12.22</v>
+        <v>68.23</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-0.82</v>
       </c>
     </row>
   </sheetData>
@@ -1255,33 +1214,32 @@
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
+    <col min="3" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="C2" s="2">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1289,7 +1247,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1303,13 +1261,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="C4" s="2">
-        <v>295</v>
+        <v>590</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1317,13 +1275,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B5" s="2">
-        <v>885</v>
+        <v>1180</v>
       </c>
       <c r="C5" s="2">
-        <v>885</v>
+        <v>1180</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1331,7 +1289,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="B6" s="2">
         <v>590</v>
@@ -1345,16 +1303,263 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2">
-        <v>1041.78</v>
+        <v>416.72</v>
       </c>
       <c r="C7" s="2">
-        <v>1041.78</v>
+        <v>416.72</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>45663</v>
+      </c>
+      <c r="B2" s="2"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>45662</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>45668</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>45667</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>45666</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>45659</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>45656</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>45664</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>45657</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>45658</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>45660</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>45669</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>45665</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>45661</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>45644</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>45643</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>45653</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>45647</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>45655</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>45642</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>45652</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>45651</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>45654</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>45645</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>45650</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>45648</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>45646</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>45649</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ComparedResults/LAVTA_Comparison.xlsx
+++ b/ComparedResults/LAVTA_Comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ComparePayroll\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF6C404-1666-46D7-B236-C64FF97135B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E94B513-2214-4C4B-A13B-769BAE5DD5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="3885" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Metric</t>
   </si>
@@ -46,18 +46,18 @@
     <t>TRIPS</t>
   </si>
   <si>
+    <t>Decreased</t>
+  </si>
+  <si>
+    <t>HOURS</t>
+  </si>
+  <si>
     <t>Increased</t>
   </si>
   <si>
-    <t>HOURS</t>
-  </si>
-  <si>
     <t>OPERATORS</t>
   </si>
   <si>
-    <t>Decreased</t>
-  </si>
-  <si>
     <t>DAYS</t>
   </si>
   <si>
@@ -73,82 +73,58 @@
     <t>Partner</t>
   </si>
   <si>
-    <t>ROGERS, JAMES</t>
+    <t>HUGO, TAMA</t>
+  </si>
+  <si>
+    <t>HUGO FAMILY TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
+    <t>ALLGOOD, SCOTT</t>
   </si>
   <si>
     <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
   </si>
   <si>
-    <t>Added</t>
-  </si>
-  <si>
-    <t>SULEIMAN, AHMED</t>
+    <t>VILCHEZ, CHARLENNE</t>
+  </si>
+  <si>
+    <t>NORTHCAL TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>SILVA PAUL</t>
+  </si>
+  <si>
+    <t>ROBERTSON, SARAH</t>
+  </si>
+  <si>
+    <t>PARTNER</t>
+  </si>
+  <si>
+    <t>LATEST</t>
+  </si>
+  <si>
+    <t>PREVIOUS</t>
+  </si>
+  <si>
+    <t>CHANGE</t>
+  </si>
+  <si>
+    <t>BUFFINGTON TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>JORGE TRANSPORTATION</t>
   </si>
   <si>
     <t>NEMIA CARE LLC</t>
   </si>
   <si>
-    <t>MUNOZ, ANA</t>
-  </si>
-  <si>
     <t>PEOPLE FIRST TRANSIT LLC</t>
-  </si>
-  <si>
-    <t>LARA, DOUGLAS</t>
-  </si>
-  <si>
-    <t>EVANS, JOHN</t>
-  </si>
-  <si>
-    <t>HUGO, TAMA</t>
-  </si>
-  <si>
-    <t>HUGO FAMILY TRANSPORTATION</t>
-  </si>
-  <si>
-    <t>Removed</t>
-  </si>
-  <si>
-    <t>SILVA, PAUL</t>
-  </si>
-  <si>
-    <t>VILCHEZ, CHARLENNE</t>
-  </si>
-  <si>
-    <t>NORTHCAL TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>MOLLIQUE, ROMESHA</t>
-  </si>
-  <si>
-    <t>MONAI&amp;SON'S LLC</t>
-  </si>
-  <si>
-    <t>GETU BOGALE</t>
-  </si>
-  <si>
-    <t>GET CARE TRANSIT LLC</t>
-  </si>
-  <si>
-    <t>ALLGOOD, SCOTT</t>
-  </si>
-  <si>
-    <t>PARTNER</t>
-  </si>
-  <si>
-    <t>PREVIOUS</t>
-  </si>
-  <si>
-    <t>LATEST</t>
-  </si>
-  <si>
-    <t>CHANGE</t>
-  </si>
-  <si>
-    <t>BUFFINGTON TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>JORGE TRANSPORTATION</t>
   </si>
   <si>
     <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
@@ -189,12 +165,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -213,14 +189,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -570,7 +546,7 @@
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
@@ -597,13 +573,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>973</v>
+        <v>1278</v>
       </c>
       <c r="C2" s="2">
-        <v>1018</v>
+        <v>1272</v>
       </c>
       <c r="D2" s="2">
-        <v>45</v>
+        <v>-6</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -614,33 +590,33 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>775.70099999999991</v>
+        <v>882.46900000000016</v>
       </c>
       <c r="C3" s="2">
-        <v>834.70500000000004</v>
+        <v>901.94200000000001</v>
       </c>
       <c r="D3" s="2">
-        <v>59.004000000000133</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
+        <v>19.472999999999839</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2">
         <v>-1</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>9</v>
+      <c r="E4" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -665,16 +641,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>23325.45278</v>
+        <v>28659.20808833334</v>
       </c>
       <c r="C6" s="2">
-        <v>26979.472750000001</v>
+        <v>29229.5741925</v>
       </c>
       <c r="D6" s="2">
-        <v>3654.0199699999939</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>6</v>
+        <v>570.36610416666008</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -684,7 +660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -713,7 +689,7 @@
       <c r="B2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -724,7 +700,7 @@
       <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -736,95 +712,29 @@
         <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -834,183 +744,156 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="C2" s="2">
-        <v>122</v>
+        <v>179</v>
       </c>
       <c r="D2" s="4">
-        <v>-21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>309</v>
+        <v>335</v>
       </c>
       <c r="C3" s="2">
-        <v>293</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-16</v>
+        <v>360</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-25</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>-7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-10</v>
+        <v>122</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
-        <v>115</v>
+        <v>239</v>
       </c>
       <c r="C6" s="2">
-        <v>104</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-11</v>
+        <v>246</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-5</v>
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-11</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="C8" s="2">
-        <v>185</v>
-      </c>
-      <c r="D8" s="3">
-        <v>83</v>
+        <v>184</v>
+      </c>
+      <c r="D8" s="4">
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D9" s="4">
-        <v>-13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2">
-        <v>147</v>
-      </c>
-      <c r="D10" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2">
-        <v>22</v>
-      </c>
-      <c r="C11" s="2">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2">
-        <v>134</v>
-      </c>
-      <c r="C12" s="2">
-        <v>136</v>
-      </c>
-      <c r="D12" s="3">
-        <v>2</v>
+        <v>162</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1020,183 +903,156 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
-        <v>84.85</v>
+        <v>92.72</v>
       </c>
       <c r="C2" s="2">
-        <v>83.36</v>
-      </c>
-      <c r="D2" s="4">
-        <v>-1.49</v>
+        <v>94.25</v>
+      </c>
+      <c r="D2" s="3">
+        <v>-1.53</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
-        <v>309.64</v>
+        <v>328.34</v>
       </c>
       <c r="C3" s="2">
-        <v>323.88</v>
+        <v>337.51</v>
       </c>
       <c r="D3" s="3">
-        <v>14.24</v>
+        <v>-9.17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="B4" s="2">
-        <v>2.4700000000000002</v>
+        <v>10.5</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
       </c>
       <c r="D4" s="4">
-        <v>-2.4700000000000002</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2">
-        <v>8.5</v>
+        <v>99.77</v>
       </c>
       <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>-8.5</v>
+        <v>111.38</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-11.61</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6" s="2">
-        <v>104.57</v>
+        <v>164.16</v>
       </c>
       <c r="C6" s="2">
-        <v>99.38</v>
-      </c>
-      <c r="D6" s="4">
-        <v>-5.19</v>
+        <v>167.8</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-3.64</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="B7" s="2">
-        <v>4.8</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>-4.8</v>
+        <v>6.42</v>
+      </c>
+      <c r="D7" s="3">
+        <v>-6.42</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
-        <v>90.79</v>
+        <v>110.42</v>
       </c>
       <c r="C8" s="2">
-        <v>159.63</v>
-      </c>
-      <c r="D8" s="3">
-        <v>68.84</v>
+        <v>77.3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>33.119999999999997</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2">
-        <v>10.08</v>
+        <v>19.25</v>
       </c>
       <c r="C9" s="2">
-        <v>0</v>
+        <v>15.18</v>
       </c>
       <c r="D9" s="4">
-        <v>-10.08</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2">
-        <v>67.34</v>
+        <v>76.78</v>
       </c>
       <c r="C10" s="2">
-        <v>76.37</v>
-      </c>
-      <c r="D10" s="3">
-        <v>9.0299999999999994</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="2">
-        <v>23.62</v>
-      </c>
-      <c r="C11" s="2">
-        <v>23.85</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="2">
-        <v>69.05</v>
-      </c>
-      <c r="C12" s="2">
-        <v>68.23</v>
-      </c>
-      <c r="D12" s="4">
-        <v>-0.82</v>
+        <v>72.63</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4.1500000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -1213,27 +1069,28 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="4" width="8" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2">
         <v>590</v>
@@ -1247,7 +1104,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1261,7 +1118,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
         <v>590</v>
@@ -1275,7 +1132,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2">
         <v>1180</v>
@@ -1289,7 +1146,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2">
         <v>590</v>
@@ -1303,7 +1160,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" s="2">
         <v>416.72</v>
@@ -1334,7 +1191,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1342,198 +1199,198 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>45663</v>
+        <v>45589</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>45662</v>
+        <v>45595</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>45668</v>
+        <v>45591</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>45667</v>
+        <v>45588</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>45666</v>
+        <v>45594</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>45659</v>
+        <v>45586</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>45656</v>
+        <v>45592</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>45664</v>
+        <v>45587</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>45657</v>
+        <v>45597</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>45658</v>
+        <v>45593</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>45660</v>
+        <v>45598</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>45669</v>
+        <v>45596</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>45665</v>
+        <v>45599</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>45661</v>
+        <v>45590</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>45644</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>26</v>
+        <v>45579</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>45643</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>45581</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>45653</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>45584</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>45647</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
+        <v>45572</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>45655</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>45576</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>45642</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>45585</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>45652</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>45583</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>45651</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>26</v>
+        <v>45575</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>45654</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>26</v>
+        <v>45574</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>45645</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>26</v>
+        <v>45580</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>45650</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>45573</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>45648</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>45577</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>45646</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>26</v>
+        <v>45582</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>45649</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>26</v>
+        <v>45578</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1554,12 +1411,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ComparedResults/LAVTA_Comparison.xlsx
+++ b/ComparedResults/LAVTA_Comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\ComparePayroll\ComparedResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neild\Desktop\Payroll Analysis\ComparedResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E94B513-2214-4C4B-A13B-769BAE5DD5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931B5101-38A3-4398-91B5-1F6314A49F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>Metric</t>
   </si>
@@ -73,34 +73,73 @@
     <t>Partner</t>
   </si>
   <si>
+    <t>JENNINGS, WILLIAM</t>
+  </si>
+  <si>
+    <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>Added</t>
+  </si>
+  <si>
     <t>HUGO, TAMA</t>
   </si>
   <si>
     <t>HUGO FAMILY TRANSPORTATION</t>
   </si>
   <si>
-    <t>Added</t>
-  </si>
-  <si>
-    <t>ALLGOOD, SCOTT</t>
+    <t>VILCHEZ, CHARLENNE</t>
+  </si>
+  <si>
+    <t>NORTHCAL TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>MOLLIQUE, ROMESHA</t>
+  </si>
+  <si>
+    <t>MONAI&amp;SON'S LLC</t>
+  </si>
+  <si>
+    <t>FOWLER, ANTOINE</t>
+  </si>
+  <si>
+    <t>FOWLER SENIOR TRANSIT LLC</t>
+  </si>
+  <si>
+    <t>UMANA, DOMINGO</t>
   </si>
   <si>
     <t>EXPRESS TRANSPORTATION SERVICES, LLC</t>
   </si>
   <si>
-    <t>VILCHEZ, CHARLENNE</t>
-  </si>
-  <si>
-    <t>NORTHCAL TRANSPORTATION LLC</t>
+    <t>ALLISON, AARON</t>
+  </si>
+  <si>
+    <t>AARON TRANSPORTATION</t>
+  </si>
+  <si>
+    <t>VAUGHN, DUSTIN</t>
+  </si>
+  <si>
+    <t>ROGERS, JAMES</t>
+  </si>
+  <si>
+    <t>EVANS, JOHN</t>
   </si>
   <si>
     <t>Removed</t>
   </si>
   <si>
-    <t>SILVA PAUL</t>
-  </si>
-  <si>
-    <t>ROBERTSON, SARAH</t>
+    <t>BROWN, LOVIE</t>
+  </si>
+  <si>
+    <t>HIGHER-SELF LLC</t>
+  </si>
+  <si>
+    <t>SULEIMAN, AHMED</t>
+  </si>
+  <si>
+    <t>NEMIA CARE LLC</t>
   </si>
   <si>
     <t>PARTNER</t>
@@ -118,19 +157,19 @@
     <t>BUFFINGTON TRANSPORTATION LLC</t>
   </si>
   <si>
+    <t>DIAMOND HILL TRANSPORTATION LLC</t>
+  </si>
+  <si>
+    <t>GET CARE TRANSIT LLC</t>
+  </si>
+  <si>
+    <t>QUICK RIDES CA</t>
+  </si>
+  <si>
+    <t>TRI VALLEY TRANSPORTATION INC.</t>
+  </si>
+  <si>
     <t>JORGE TRANSPORTATION</t>
-  </si>
-  <si>
-    <t>NEMIA CARE LLC</t>
-  </si>
-  <si>
-    <t>PEOPLE FIRST TRANSIT LLC</t>
-  </si>
-  <si>
-    <t>SYNERGY MEDICAL TRANSPORTATION LLC</t>
-  </si>
-  <si>
-    <t>TRI VALLEY TRANSPORTATION INC.</t>
   </si>
   <si>
     <t>Date</t>
@@ -545,9 +584,8 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="2" max="3" width="19" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,13 +611,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="2">
-        <v>1278</v>
+        <v>1248</v>
       </c>
       <c r="C2" s="2">
-        <v>1272</v>
+        <v>1162</v>
       </c>
       <c r="D2" s="2">
-        <v>-6</v>
+        <v>-86</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>6</v>
@@ -590,13 +628,13 @@
         <v>7</v>
       </c>
       <c r="B3" s="2">
-        <v>882.46900000000016</v>
+        <v>735.76200000000006</v>
       </c>
       <c r="C3" s="2">
-        <v>901.94200000000001</v>
+        <v>745.87900000000002</v>
       </c>
       <c r="D3" s="2">
-        <v>19.472999999999839</v>
+        <v>10.11699999999996</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
@@ -607,16 +645,16 @@
         <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -641,16 +679,16 @@
         <v>12</v>
       </c>
       <c r="B6" s="2">
-        <v>28659.20808833334</v>
+        <v>24750.4903287218</v>
       </c>
       <c r="C6" s="2">
-        <v>29229.5741925</v>
+        <v>17338.692862825821</v>
       </c>
       <c r="D6" s="2">
-        <v>570.36610416666008</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
+        <v>-7411.7974658959874</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +698,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -711,19 +749,19 @@
       <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
+      <c r="C4" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
+      <c r="C5" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,10 +769,87 @@
         <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -744,7 +859,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -758,16 +873,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,125 +890,195 @@
         <v>29</v>
       </c>
       <c r="B2" s="2">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="D2" s="4">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>335</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2">
-        <v>360</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3">
-        <v>-25</v>
+        <v>-71</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
         <v>10</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D4" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
-        <v>107</v>
+        <v>394</v>
       </c>
       <c r="C5" s="2">
-        <v>122</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-15</v>
+        <v>327</v>
+      </c>
+      <c r="D5" s="4">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>239</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2">
-        <v>246</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-7</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C7" s="2">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-11</v>
+        <v>132</v>
+      </c>
+      <c r="D7" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>184</v>
-      </c>
-      <c r="D8" s="4">
-        <v>36</v>
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-3</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2">
+        <v>125</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>41</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>299</v>
+      </c>
+      <c r="C14" s="2">
+        <v>229</v>
+      </c>
+      <c r="D14" s="4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
+        <v>73</v>
+      </c>
+      <c r="C15" s="2">
+        <v>222</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-149</v>
       </c>
     </row>
   </sheetData>
@@ -903,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -917,16 +1102,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,125 +1119,195 @@
         <v>29</v>
       </c>
       <c r="B2" s="2">
-        <v>92.72</v>
+        <v>11.02</v>
       </c>
       <c r="C2" s="2">
-        <v>94.25</v>
-      </c>
-      <c r="D2" s="3">
-        <v>-1.53</v>
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>11.02</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2">
-        <v>328.34</v>
+        <v>56.95</v>
       </c>
       <c r="C3" s="2">
-        <v>337.51</v>
+        <v>92.95</v>
       </c>
       <c r="D3" s="3">
-        <v>-9.17</v>
+        <v>-36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2">
-        <v>10.5</v>
+        <v>11.57</v>
       </c>
       <c r="C4" s="2">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="D4" s="4">
-        <v>10.5</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" s="2">
-        <v>99.77</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="C5" s="2">
-        <v>111.38</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-11.61</v>
+        <v>249.75</v>
+      </c>
+      <c r="D5" s="4">
+        <v>27.15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2">
-        <v>164.16</v>
+        <v>7.47</v>
       </c>
       <c r="C6" s="2">
-        <v>167.8</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-3.64</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7.47</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2">
-        <v>0</v>
+        <v>102.73</v>
       </c>
       <c r="C7" s="2">
-        <v>6.42</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-6.42</v>
+        <v>97.32</v>
+      </c>
+      <c r="D7" s="4">
+        <v>5.41</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>110.42</v>
+        <v>0</v>
       </c>
       <c r="C8" s="2">
-        <v>77.3</v>
-      </c>
-      <c r="D8" s="4">
-        <v>33.119999999999997</v>
+        <v>3.23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>-3.23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>19.25</v>
+        <v>3.62</v>
       </c>
       <c r="C9" s="2">
-        <v>15.18</v>
+        <v>0</v>
       </c>
       <c r="D9" s="4">
-        <v>4.07</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="B10" s="2">
-        <v>76.78</v>
+        <v>2.15</v>
       </c>
       <c r="C10" s="2">
-        <v>72.63</v>
+        <v>0</v>
       </c>
       <c r="D10" s="4">
-        <v>4.1500000000000004</v>
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2">
+        <v>35.53</v>
+      </c>
+      <c r="C11" s="2">
+        <v>81.96</v>
+      </c>
+      <c r="D11" s="3">
+        <v>-46.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>31.07</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>31.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.85</v>
+      </c>
+      <c r="C13" s="2">
+        <v>13.85</v>
+      </c>
+      <c r="D13" s="3">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2">
+        <v>174.7</v>
+      </c>
+      <c r="C14" s="2">
+        <v>119.17</v>
+      </c>
+      <c r="D14" s="4">
+        <v>55.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="2">
+        <v>30.33</v>
+      </c>
+      <c r="C15" s="2">
+        <v>75.3</v>
+      </c>
+      <c r="D15" s="3">
+        <v>-44.97</v>
       </c>
     </row>
   </sheetData>
@@ -1076,27 +1331,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C2" s="2">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="D2" s="2">
         <v>0</v>
@@ -1104,7 +1359,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
@@ -1118,13 +1373,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="C4" s="2">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1132,13 +1387,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2">
-        <v>1180</v>
+        <v>615</v>
       </c>
       <c r="C5" s="2">
-        <v>1180</v>
+        <v>615</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1146,21 +1401,21 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>590</v>
+        <v>615</v>
       </c>
       <c r="C6" s="2">
-        <v>590</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
+        <v>615</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B7" s="2">
         <v>416.72</v>
@@ -1191,7 +1446,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1199,198 +1454,198 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>45589</v>
+        <v>45766</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>45595</v>
+        <v>45761</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>45591</v>
+        <v>45765</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>45588</v>
+        <v>45759</v>
       </c>
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>45594</v>
+        <v>45767</v>
       </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
-        <v>45586</v>
+        <v>45756</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <v>45592</v>
+        <v>45764</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <v>45587</v>
+        <v>45762</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <v>45597</v>
+        <v>45754</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <v>45593</v>
+        <v>45760</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <v>45598</v>
+        <v>45763</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>45596</v>
+        <v>45757</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
-        <v>45599</v>
+        <v>45758</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
-        <v>45590</v>
+        <v>45755</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
-        <v>45579</v>
+        <v>45741</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
-        <v>45581</v>
+        <v>45746</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>45584</v>
+        <v>45753</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
-        <v>45572</v>
+        <v>45743</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
-        <v>45576</v>
+        <v>45742</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
-        <v>45585</v>
+        <v>45748</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
-        <v>45583</v>
+        <v>45752</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
-        <v>45575</v>
+        <v>45744</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
-        <v>45574</v>
+        <v>45751</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>45580</v>
+        <v>45740</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>45573</v>
+        <v>45745</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>45577</v>
+        <v>45750</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>45582</v>
+        <v>45747</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
-        <v>45578</v>
+        <v>45749</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1411,12 +1666,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
